--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H2">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J2">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N2">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q2">
-        <v>35.50142029137101</v>
+        <v>11.27536187649833</v>
       </c>
       <c r="R2">
-        <v>319.512782622339</v>
+        <v>101.478256888485</v>
       </c>
       <c r="S2">
-        <v>0.008426326426633693</v>
+        <v>0.002840101680087755</v>
       </c>
       <c r="T2">
-        <v>0.008426326426633693</v>
+        <v>0.002840101680087755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H3">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J3">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>209.032433</v>
       </c>
       <c r="O3">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P3">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q3">
-        <v>124.537970030039</v>
+        <v>59.96687599165165</v>
       </c>
       <c r="R3">
-        <v>1120.841730270351</v>
+        <v>539.7018839248649</v>
       </c>
       <c r="S3">
-        <v>0.02955931282102817</v>
+        <v>0.01510479460605977</v>
       </c>
       <c r="T3">
-        <v>0.02955931282102816</v>
+        <v>0.01510479460605977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.787349</v>
+        <v>0.8606349999999999</v>
       </c>
       <c r="H4">
-        <v>5.362047</v>
+        <v>2.581905</v>
       </c>
       <c r="I4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="J4">
-        <v>0.04925512201701282</v>
+        <v>0.0262626340301864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N4">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q4">
-        <v>47.480078981574</v>
+        <v>33.02188217956666</v>
       </c>
       <c r="R4">
-        <v>427.3207108341661</v>
+        <v>297.1969396161</v>
       </c>
       <c r="S4">
-        <v>0.01126948276935096</v>
+        <v>0.008317737744038874</v>
       </c>
       <c r="T4">
-        <v>0.01126948276935096</v>
+        <v>0.008317737744038876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>19.46983</v>
       </c>
       <c r="H5">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J5">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N5">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q5">
-        <v>386.7216854859033</v>
+        <v>255.0783769239034</v>
       </c>
       <c r="R5">
-        <v>3480.49516937313</v>
+        <v>2295.70539231513</v>
       </c>
       <c r="S5">
-        <v>0.09178909270157393</v>
+        <v>0.06425057880985899</v>
       </c>
       <c r="T5">
-        <v>0.09178909270157393</v>
+        <v>0.06425057880985899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>19.46983</v>
       </c>
       <c r="H6">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J6">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>209.032433</v>
       </c>
       <c r="O6">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P6">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q6">
         <v>1356.608644998797</v>
@@ -818,10 +818,10 @@
         <v>12209.47780498917</v>
       </c>
       <c r="S6">
-        <v>0.3219935197559283</v>
+        <v>0.3417102292666469</v>
       </c>
       <c r="T6">
-        <v>0.3219935197559283</v>
+        <v>0.341710229266647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>19.46983</v>
       </c>
       <c r="H7">
-        <v>58.40948999999999</v>
+        <v>58.40949000000001</v>
       </c>
       <c r="I7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="J7">
-        <v>0.5365425847444996</v>
+        <v>0.5941299388474139</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N7">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q7">
-        <v>517.2068052505799</v>
+        <v>747.0419310348667</v>
       </c>
       <c r="R7">
-        <v>4654.861247255219</v>
+        <v>6723.377379313801</v>
       </c>
       <c r="S7">
-        <v>0.1227599722869973</v>
+        <v>0.188169130770908</v>
       </c>
       <c r="T7">
-        <v>0.1227599722869973</v>
+        <v>0.1881691307709081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H8">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J8">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N8">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q8">
-        <v>298.5429554479671</v>
+        <v>162.9772210545153</v>
       </c>
       <c r="R8">
-        <v>2686.886599031704</v>
+        <v>1466.794989490638</v>
       </c>
       <c r="S8">
-        <v>0.0708597113673218</v>
+        <v>0.04105162072870974</v>
       </c>
       <c r="T8">
-        <v>0.0708597113673218</v>
+        <v>0.04105162072870974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H9">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J9">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>209.032433</v>
       </c>
       <c r="O9">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P9">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q9">
-        <v>1047.28017451446</v>
+        <v>866.7779279715046</v>
       </c>
       <c r="R9">
-        <v>9425.521570630135</v>
+        <v>7801.00135174354</v>
       </c>
       <c r="S9">
-        <v>0.2485738468538308</v>
+        <v>0.2183289083276295</v>
       </c>
       <c r="T9">
-        <v>0.2485738468538307</v>
+        <v>0.2183289083276295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.03039733333333</v>
+        <v>12.439858</v>
       </c>
       <c r="H10">
-        <v>45.091192</v>
+        <v>37.319574</v>
       </c>
       <c r="I10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223998</v>
       </c>
       <c r="J10">
-        <v>0.4142022932384875</v>
+        <v>0.3796074271223997</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N10">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q10">
-        <v>399.275380751664</v>
+        <v>477.3074825059866</v>
       </c>
       <c r="R10">
-        <v>3593.478426764976</v>
+        <v>4295.76734255388</v>
       </c>
       <c r="S10">
-        <v>0.09476873501733493</v>
+        <v>0.1202268980660605</v>
       </c>
       <c r="T10">
-        <v>0.09476873501733493</v>
+        <v>0.1202268980660605</v>
       </c>
     </row>
   </sheetData>
